--- a/src/cab/resource/falcon.resource.xlsx
+++ b/src/cab/resource/falcon.resource.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D0EE80-DBB1-6B47-B96B-2F698A846CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C4B5F-E5F0-544A-AEA0-73CFD3AB484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56560" yWindow="-5220" windowWidth="50720" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA-RES" sheetId="2" r:id="rId1"/>
+    <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
